--- a/src/test/resources/excel/bind_excel_mapper.xlsx
+++ b/src/test/resources/excel/bind_excel_mapper.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>${string}</t>
     <phoneticPr fontId="1"/>
@@ -94,6 +94,55 @@
   <si>
     <t>${stringOpt}</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intOpt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>longOpt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dateOpt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>booleanOpt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>floatOpt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doubleOpt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>formulaOpt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${intOpt}</t>
+  </si>
+  <si>
+    <t>${longOpt}</t>
+  </si>
+  <si>
+    <t>${dateOpt}</t>
+  </si>
+  <si>
+    <t>${booleanOpt}</t>
+  </si>
+  <si>
+    <t>${floatOpt}</t>
+  </si>
+  <si>
+    <t>${doubleOpt}</t>
+  </si>
+  <si>
+    <t>${formulaOpt}</t>
   </si>
 </sst>
 </file>
@@ -147,8 +196,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -167,7 +224,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="23">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -175,6 +232,10 @@
     <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -183,6 +244,10 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -511,15 +576,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -547,8 +612,29 @@
       <c r="I1" t="s">
         <v>16</v>
       </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -575,6 +661,27 @@
       </c>
       <c r="I2" t="s">
         <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
